--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_2_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_2_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.37000000000006</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001192710816269482</v>
+        <v>0.0003897078414272226</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004120200095080273</v>
+        <v>0.005305557989998039</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.005282584787521</v>
+        <v>4.47320923398759</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.56244423260922, 6.448120936965822]</t>
+          <t>[1.63300824410737, 7.31341022386781]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001366961353884921</v>
+        <v>0.002092836964294742</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001366961353884921</v>
+        <v>0.002193985764704864</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.408842351159387</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, -0.6037895790683088]</t>
+          <t>[-2.0503687789194647, -0.5660527303765388]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006394891486529719</v>
+        <v>0.000584403642466258</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001278978297305944</v>
+        <v>0.001168807284932516</v>
       </c>
       <c r="S2" t="n">
-        <v>13.62974959914956</v>
+        <v>14.25275997232328</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.128108937802793, 15.131390260496321]</t>
+          <t>[12.702230074550286, 15.803289870096272]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.015895895895909</v>
+        <v>4.709669669669687</v>
       </c>
       <c r="X2" t="n">
-        <v>2.149669669669676</v>
+        <v>2.037837837837842</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.882122122122142</v>
+        <v>7.381501501501531</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.21000000000019</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78958140933938e-05</v>
+        <v>0.00091623248289463</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003278895318389209</v>
+        <v>0.005305557989998039</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.602053299993502</v>
+        <v>4.468396279404046</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.337745670811083, 8.86636092917592]</t>
+          <t>[1.6207190401994627, 7.316073518608629]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0008228155605163323</v>
+        <v>0.002193985764704864</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001366961353884921</v>
+        <v>0.002193985764704864</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7736053981812701</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.24528951649650033, 1.3019212798660398]</t>
+          <t>[-0.9937370155499243, 0.5912106295043857]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.004228819327398936</v>
+        <v>0.6176976900069806</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004228819327398936</v>
+        <v>0.6176976900069806</v>
       </c>
       <c r="S3" t="n">
-        <v>13.33545986848464</v>
+        <v>13.33069447056868</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.680991320813899, 14.989928416155383]</t>
+          <t>[11.671776839715168, 14.9896121014222]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.35231231231248</v>
+        <v>0.7370570570570614</v>
       </c>
       <c r="X3" t="n">
-        <v>18.40072072072087</v>
+        <v>-2.165105105105121</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.30390390390409</v>
+        <v>3.639219219219243</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_2_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_2_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6200000000001</v>
+        <v>22.45000000000007</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003897078414272226</v>
+        <v>1.229817934567112e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005305557989998039</v>
+        <v>0.0003096305596755574</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.47320923398759</v>
+        <v>5.648674372062309</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.63300824410737, 7.31341022386781]</t>
+          <t>[2.9210465547030804, 8.376302189421537]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002092836964294742</v>
+        <v>5.588270292422592e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002193985764704864</v>
+        <v>0.0001117654058484518</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.446579199851156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.0503687789194647, -0.5660527303765388]</t>
+          <t>[-2.0252108797916186, -0.8679475199106932]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.000584403642466258</v>
+        <v>1.273448168470637e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001168807284932516</v>
+        <v>2.546896336941273e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>14.25275997232328</v>
+        <v>14.9025753615363</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.702230074550286, 15.803289870096272]</t>
+          <t>[13.281594864790872, 16.523555858281735]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.709669669669687</v>
+        <v>5.168668668668687</v>
       </c>
       <c r="X2" t="n">
-        <v>2.037837837837842</v>
+        <v>3.101201201201212</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.381501501501531</v>
+        <v>7.236136136136162</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01000000000016</v>
+        <v>23.3100000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00091623248289463</v>
+        <v>0.001538987710355433</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005305557989998039</v>
+        <v>0.007399883206228768</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.468396279404046</v>
+        <v>4.323198046815834</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.6207190401994627, 7.316073518608629]</t>
+          <t>[1.2483076746789425, 7.398088418952726]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.002193985764704864</v>
+        <v>0.005996888738117878</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002193985764704864</v>
+        <v>0.005996888738117878</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2012631930227693</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.9937370155499243, 0.5912106295043857]</t>
+          <t>[0.4339737599553466, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.6176976900069806</v>
+        <v>0.002244794352228796</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6176976900069806</v>
+        <v>0.002244794352228796</v>
       </c>
       <c r="S3" t="n">
-        <v>13.33069447056868</v>
+        <v>12.61010670806595</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.671776839715168, 14.9896121014222]</t>
+          <t>[10.94212325228984, 14.278090163842062]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7370570570570614</v>
+        <v>18.8533333333335</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.165105105105121</v>
+        <v>16.00666666666681</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.639219219219243</v>
+        <v>21.70000000000019</v>
       </c>
     </row>
   </sheetData>
